--- a/Tipos de Industrias/6.20.xlsx
+++ b/Tipos de Industrias/6.20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Tipos de Industrias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E38BD69-7403-4672-ACE0-63A709683CEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFA4E5-15FF-49E7-AB74-076BB3BAAD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1705E480-8FAA-4A26-BB05-10F3C97ADC70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1705E480-8FAA-4A26-BB05-10F3C97ADC70}"/>
   </bookViews>
   <sheets>
     <sheet name="T - Actividades de los hogares " sheetId="1" r:id="rId1"/>
@@ -535,28 +535,10 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1071,13 +1053,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1093,10 +1068,35 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1112,45 +1112,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82CC089D-2580-42CA-9F43-D88A98A85B92}" name="Empresas_Rubro_T" displayName="Empresas_Rubro_T" ref="A1:AJ103" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82CC089D-2580-42CA-9F43-D88A98A85B92}" name="Empresas_Rubro_T" displayName="Empresas_Rubro_T" ref="A1:AJ103" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="A1:AJ103" xr:uid="{CACA7518-AB35-4A4D-886B-A3D145115048}"/>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{3E712D72-5B13-4863-9868-8A39137D9254}" name="Año Comercial" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{E01AD76A-1381-405B-9F9E-E2EB7BAA7517}" name="Id_Comuna" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{5F82614A-A2DD-4182-9DFB-1AE1659CC5EB}" name="Comuna del domicilio o casa matriz" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{3D6ABABF-BFDC-465B-B1DA-81C82D0A20A9}" name="Id_Región" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{5C6457B7-31DF-42EF-BCF4-99EB6894B993}" name="Region del domicilio o casa matriz" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{A8076170-ED9D-47D2-84CF-52D591469515}" name="Actividad economica" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{9D6805C2-6343-4D17-A101-E0F446CE9766}" name="Subrubro economico" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{C7BE59D2-0334-458F-AA47-AA5FFDB9DFFA}" name="Rubro economico" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{4FA81303-11E3-47FA-A79A-0B98FB7AC2B4}" name="Id_industria" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{467FDC09-B145-4139-B458-6DBD55477A6B}" name="Industria" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{89118263-EC8C-494F-8D2C-D12CEBBB962E}" name="Id_Sector" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{A4AEF15C-48E2-48C0-B7C9-BA907A306D34}" name="Sector" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{D1B3C02D-496C-4EF6-A673-597C910B645E}" name="Id_producto" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{BEA09EED-3B8B-41E4-9AD0-C33705EBB5CF}" name="Producto" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{A93837AB-DB04-4488-91EE-C94BD9F0D97E}" name="Id_categoría" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{C69C3ED9-AA47-4C88-BF20-208CFB25F42D}" name="Categoría" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{76F914BE-3CDD-4782-B883-0CBEA3AFDC48}" name="Número de empresas" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{BEDC3940-A703-47D3-84A2-B4942D9F067B}" name="Ventas anuales en UF" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{5D924A48-76A6-4459-A74F-02A4045E1C7D}" name="Número de trabajadores dependientes informados" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{083E690A-6DC3-48B0-9E0D-141F8E9F2FB1}" name="Renta neta informada" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{456B5C7F-547C-4F21-84C4-A3EB5D4CF456}" name="Trabajadores ponderados por meses trabajados" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{4CAB536D-E915-4697-8B2D-CB2643A4C1CA}" name="Número de trabajadores dependientes de género femenino informados" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{40193432-EE2C-43D3-870E-FCA9A97030FA}" name="Renta neta informada, trabajadores de género femenino" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{CF8E3F24-D147-4CBF-8FD0-3EBDF04B98A0}" name="Trabajadores de género femenino ponderados por meses trabajados" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{FAFC18C1-3AFE-4CDB-B5F2-5DADA6A981A2}" name="Número de trabajadores dependientes de género masculino informados" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{E6DEDD38-DEF1-4900-B682-282213331FBE}" name="Renta neta informada, trabajadores de género masculino" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{1B664467-B59B-499A-ADD4-BF47374916D9}" name="Trabajadores de género masculino ponderados por meses trabajados" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{F7F3B127-A4B4-49CE-8DDB-AC518478262E}" name="Número de trabajadores a honorarios informados" dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{5FC466F8-BDB9-4AF3-B567-E3D4D71785CC}" name="Honorarios pagados informados" dataDxfId="8"/>
-    <tableColumn id="30" xr3:uid="{7F6C9DCE-E2D5-4338-BD9F-F9C15E25CC60}" name="Trabajadores a honorarios ponderados por meses trabajados" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{44C8B651-7D44-48D6-996C-0D94CD6CD29D}" name="Número de trabajadores a honorarios de género femenino informados" dataDxfId="6"/>
-    <tableColumn id="32" xr3:uid="{1DFBD1C5-0B0C-4978-96AC-3CFE91E2F93E}" name="Honorarios pagados informados a trabajadores de género femenino" dataDxfId="5"/>
-    <tableColumn id="33" xr3:uid="{CF767D5D-D809-4146-8EA2-8CCADAE5CC63}" name="Trabajadores a honorarios de género femenino ponderados por meses trabajados" dataDxfId="4"/>
-    <tableColumn id="34" xr3:uid="{384633B3-3EDA-404B-9736-F374D9CC956C}" name="Número de trabajadores a honorarios de género masculino informados" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{A0F75156-47FE-433C-8639-008DC252DF72}" name="Honorarios pagados informados a trabajadores de género masculino" dataDxfId="2"/>
-    <tableColumn id="36" xr3:uid="{E64D14B0-A9A8-4B39-98A9-8AA86A1E8185}" name="Trabajadores a honorarios de género masculino ponderados por meses trabajados" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3E712D72-5B13-4863-9868-8A39137D9254}" name="Año Comercial" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{E01AD76A-1381-405B-9F9E-E2EB7BAA7517}" name="Id_Comuna" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{5F82614A-A2DD-4182-9DFB-1AE1659CC5EB}" name="Comuna del domicilio o casa matriz" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{3D6ABABF-BFDC-465B-B1DA-81C82D0A20A9}" name="Id_Región" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{5C6457B7-31DF-42EF-BCF4-99EB6894B993}" name="Region del domicilio o casa matriz" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{A8076170-ED9D-47D2-84CF-52D591469515}" name="Actividad economica" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{9D6805C2-6343-4D17-A101-E0F446CE9766}" name="Subrubro economico" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{C7BE59D2-0334-458F-AA47-AA5FFDB9DFFA}" name="Rubro economico" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{4FA81303-11E3-47FA-A79A-0B98FB7AC2B4}" name="Id_industria" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{467FDC09-B145-4139-B458-6DBD55477A6B}" name="Industria" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{89118263-EC8C-494F-8D2C-D12CEBBB962E}" name="Id_Sector" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{A4AEF15C-48E2-48C0-B7C9-BA907A306D34}" name="Sector" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{D1B3C02D-496C-4EF6-A673-597C910B645E}" name="Id_producto" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{BEA09EED-3B8B-41E4-9AD0-C33705EBB5CF}" name="Producto" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{A93837AB-DB04-4488-91EE-C94BD9F0D97E}" name="Id_categoría" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{C69C3ED9-AA47-4C88-BF20-208CFB25F42D}" name="Categoría" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{76F914BE-3CDD-4782-B883-0CBEA3AFDC48}" name="Número de empresas" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{BEDC3940-A703-47D3-84A2-B4942D9F067B}" name="Ventas anuales en UF" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{5D924A48-76A6-4459-A74F-02A4045E1C7D}" name="Número de trabajadores dependientes informados" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{083E690A-6DC3-48B0-9E0D-141F8E9F2FB1}" name="Renta neta informada" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{456B5C7F-547C-4F21-84C4-A3EB5D4CF456}" name="Trabajadores ponderados por meses trabajados" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{4CAB536D-E915-4697-8B2D-CB2643A4C1CA}" name="Número de trabajadores dependientes de género femenino informados" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{40193432-EE2C-43D3-870E-FCA9A97030FA}" name="Renta neta informada, trabajadores de género femenino" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{CF8E3F24-D147-4CBF-8FD0-3EBDF04B98A0}" name="Trabajadores de género femenino ponderados por meses trabajados" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{FAFC18C1-3AFE-4CDB-B5F2-5DADA6A981A2}" name="Número de trabajadores dependientes de género masculino informados" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{E6DEDD38-DEF1-4900-B682-282213331FBE}" name="Renta neta informada, trabajadores de género masculino" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{1B664467-B59B-499A-ADD4-BF47374916D9}" name="Trabajadores de género masculino ponderados por meses trabajados" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{F7F3B127-A4B4-49CE-8DDB-AC518478262E}" name="Número de trabajadores a honorarios informados" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{5FC466F8-BDB9-4AF3-B567-E3D4D71785CC}" name="Honorarios pagados informados" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{7F6C9DCE-E2D5-4338-BD9F-F9C15E25CC60}" name="Trabajadores a honorarios ponderados por meses trabajados" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{44C8B651-7D44-48D6-996C-0D94CD6CD29D}" name="Número de trabajadores a honorarios de género femenino informados" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{1DFBD1C5-0B0C-4978-96AC-3CFE91E2F93E}" name="Honorarios pagados informados a trabajadores de género femenino" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{CF767D5D-D809-4146-8EA2-8CCADAE5CC63}" name="Trabajadores a honorarios de género femenino ponderados por meses trabajados" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{384633B3-3EDA-404B-9736-F374D9CC956C}" name="Número de trabajadores a honorarios de género masculino informados" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{A0F75156-47FE-433C-8639-008DC252DF72}" name="Honorarios pagados informados a trabajadores de género masculino" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{E64D14B0-A9A8-4B39-98A9-8AA86A1E8185}" name="Trabajadores a honorarios de género masculino ponderados por meses trabajados" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1167,8 +1167,8 @@
     <tableColumn id="5" xr3:uid="{A5DA5057-21E0-47D0-A179-0C376F2403C3}" name="Descripción"/>
     <tableColumn id="6" xr3:uid="{7B6472A8-A849-47BF-A8CA-5EF5FB91507F}" name="Periodicidad"/>
     <tableColumn id="7" xr3:uid="{7EAEFD69-A5A0-4928-AE5A-724F3EF21F0D}" name="Unidad de medida"/>
-    <tableColumn id="8" xr3:uid="{C85DC68F-D459-4C5F-9253-CB6775455A82}" name="Fecha Última Actualización" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{9440A8E8-6B54-490F-BCDD-1D41FCBAD95A}" name="Fecha" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{C85DC68F-D459-4C5F-9253-CB6775455A82}" name="Fecha Última Actualización" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{9440A8E8-6B54-490F-BCDD-1D41FCBAD95A}" name="Fecha" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{1CCF4BB6-22B6-4817-A544-87926FD7EBD1}" name="Fuente"/>
     <tableColumn id="11" xr3:uid="{F69B0BB6-8939-4133-A46F-400ACD257D84}" name="Idioma"/>
     <tableColumn id="12" xr3:uid="{165180C1-988D-4031-9779-046E62BD4E24}" name="Responsable"/>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3927A8C1-D9C3-47C6-A27C-81BB55EBE436}">
   <dimension ref="A1:AJ103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12856,7 +12856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40678EA-F0F1-4F3C-B7A4-E4B4479CDCE6}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Tipos de Industrias/6.20.xlsx
+++ b/Tipos de Industrias/6.20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Tipos de Industrias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71653673-02BF-40B9-A5FE-E4E8706BD5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FED48C-B252-4A44-9187-0912318F1A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1705E480-8FAA-4A26-BB05-10F3C97ADC70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1705E480-8FAA-4A26-BB05-10F3C97ADC70}"/>
   </bookViews>
   <sheets>
     <sheet name="T - Actividades de los hogares " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="126">
   <si>
     <t>Año Comercial</t>
   </si>
@@ -411,6 +411,9 @@
   <si>
     <t>Corresponde a la suma de los honorarios  (Acumulando todos los meses del año tributario presentado) para trabajadores de sexo masculino</t>
   </si>
+  <si>
+    <t>Ñuñoa</t>
+  </si>
 </sst>
 </file>
 
@@ -494,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -502,6 +505,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,8 +1006,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82CC089D-2580-42CA-9F43-D88A98A85B92}" name="Empresas_Rubro_T" displayName="Empresas_Rubro_T" ref="A1:AD103" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:AD103" xr:uid="{CACA7518-AB35-4A4D-886B-A3D145115048}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82CC089D-2580-42CA-9F43-D88A98A85B92}" name="Empresas_Rubro_T" displayName="Empresas_Rubro_T" ref="A1:AD115" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:AD115" xr:uid="{CACA7518-AB35-4A4D-886B-A3D145115048}"/>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{3E712D72-5B13-4863-9868-8A39137D9254}" name="Año Comercial" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{E01AD76A-1381-405B-9F9E-E2EB7BAA7517}" name="Id_Comuna" dataDxfId="30"/>
@@ -1357,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3927A8C1-D9C3-47C6-A27C-81BB55EBE436}">
-  <dimension ref="A1:AD103"/>
+  <dimension ref="A1:AD115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10871,6 +10876,1110 @@
         <v>0</v>
       </c>
     </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B104" s="7">
+        <v>13108</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" s="7">
+        <v>13</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I104" s="2">
+        <v>220306020</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K104" s="8">
+        <v>1</v>
+      </c>
+      <c r="L104" s="8">
+        <v>0</v>
+      </c>
+      <c r="M104" s="8">
+        <v>0</v>
+      </c>
+      <c r="N104" s="8">
+        <v>0</v>
+      </c>
+      <c r="O104" s="8">
+        <v>0</v>
+      </c>
+      <c r="P104" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>0</v>
+      </c>
+      <c r="R104" s="8">
+        <v>0</v>
+      </c>
+      <c r="S104" s="8">
+        <v>0</v>
+      </c>
+      <c r="T104" s="8">
+        <v>0</v>
+      </c>
+      <c r="U104" s="8">
+        <v>0</v>
+      </c>
+      <c r="V104" s="8">
+        <v>0</v>
+      </c>
+      <c r="W104" s="8">
+        <v>0</v>
+      </c>
+      <c r="X104" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B105" s="7">
+        <v>8101</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D105" s="7">
+        <v>8</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" s="1">
+        <v>220306020</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K105" s="8">
+        <v>1</v>
+      </c>
+      <c r="L105" s="8">
+        <v>0</v>
+      </c>
+      <c r="M105" s="8">
+        <v>0</v>
+      </c>
+      <c r="N105" s="8">
+        <v>0</v>
+      </c>
+      <c r="O105" s="8">
+        <v>0</v>
+      </c>
+      <c r="P105" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>0</v>
+      </c>
+      <c r="R105" s="8">
+        <v>0</v>
+      </c>
+      <c r="S105" s="8">
+        <v>0</v>
+      </c>
+      <c r="T105" s="8">
+        <v>0</v>
+      </c>
+      <c r="U105" s="8">
+        <v>0</v>
+      </c>
+      <c r="V105" s="8">
+        <v>0</v>
+      </c>
+      <c r="W105" s="8">
+        <v>0</v>
+      </c>
+      <c r="X105" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B106" s="7">
+        <v>13123</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" s="7">
+        <v>13</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" s="6">
+        <v>220306020</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K106" s="8">
+        <v>1</v>
+      </c>
+      <c r="L106" s="8">
+        <v>0</v>
+      </c>
+      <c r="M106" s="8">
+        <v>4</v>
+      </c>
+      <c r="N106" s="8">
+        <v>0</v>
+      </c>
+      <c r="O106" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P106" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>0</v>
+      </c>
+      <c r="R106" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="S106" s="8">
+        <v>1</v>
+      </c>
+      <c r="T106" s="8">
+        <v>0</v>
+      </c>
+      <c r="U106" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="V106" s="8">
+        <v>0</v>
+      </c>
+      <c r="W106" s="8">
+        <v>0</v>
+      </c>
+      <c r="X106" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B107" s="7">
+        <v>13201</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" s="7">
+        <v>13</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" s="2">
+        <v>220306020</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K107" s="8">
+        <v>1</v>
+      </c>
+      <c r="L107" s="8">
+        <v>0</v>
+      </c>
+      <c r="M107" s="8">
+        <v>2</v>
+      </c>
+      <c r="N107" s="8">
+        <v>0</v>
+      </c>
+      <c r="O107" s="8">
+        <v>1.083</v>
+      </c>
+      <c r="P107" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>0</v>
+      </c>
+      <c r="R107" s="8">
+        <v>1.083</v>
+      </c>
+      <c r="S107" s="8">
+        <v>0</v>
+      </c>
+      <c r="T107" s="8">
+        <v>0</v>
+      </c>
+      <c r="U107" s="8">
+        <v>0</v>
+      </c>
+      <c r="V107" s="8">
+        <v>2</v>
+      </c>
+      <c r="W107" s="8">
+        <v>0</v>
+      </c>
+      <c r="X107" s="8">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Y107" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z107" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="8">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AB107" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B108" s="7">
+        <v>13114</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="7">
+        <v>13</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" s="1">
+        <v>220306020</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K108" s="8">
+        <v>1</v>
+      </c>
+      <c r="L108" s="8">
+        <v>0</v>
+      </c>
+      <c r="M108" s="8">
+        <v>0</v>
+      </c>
+      <c r="N108" s="8">
+        <v>0</v>
+      </c>
+      <c r="O108" s="8">
+        <v>0</v>
+      </c>
+      <c r="P108" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="8">
+        <v>0</v>
+      </c>
+      <c r="R108" s="8">
+        <v>0</v>
+      </c>
+      <c r="S108" s="8">
+        <v>0</v>
+      </c>
+      <c r="T108" s="8">
+        <v>0</v>
+      </c>
+      <c r="U108" s="8">
+        <v>0</v>
+      </c>
+      <c r="V108" s="8">
+        <v>2</v>
+      </c>
+      <c r="W108" s="8">
+        <v>0</v>
+      </c>
+      <c r="X108" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Y108" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z108" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AB108" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B109" s="7">
+        <v>8205</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" s="7">
+        <v>8</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" s="6">
+        <v>220306020</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K109" s="8">
+        <v>1</v>
+      </c>
+      <c r="L109" s="8">
+        <v>0</v>
+      </c>
+      <c r="M109" s="8">
+        <v>4</v>
+      </c>
+      <c r="N109" s="8">
+        <v>0</v>
+      </c>
+      <c r="O109" s="8">
+        <v>4</v>
+      </c>
+      <c r="P109" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q109" s="8">
+        <v>0</v>
+      </c>
+      <c r="R109" s="8">
+        <v>4</v>
+      </c>
+      <c r="S109" s="8">
+        <v>0</v>
+      </c>
+      <c r="T109" s="8">
+        <v>0</v>
+      </c>
+      <c r="U109" s="8">
+        <v>0</v>
+      </c>
+      <c r="V109" s="8">
+        <v>11</v>
+      </c>
+      <c r="W109" s="8">
+        <v>0</v>
+      </c>
+      <c r="X109" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="Y109" s="8">
+        <v>11</v>
+      </c>
+      <c r="Z109" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="AB109" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B110" s="7">
+        <v>6310</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="7">
+        <v>6</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" s="2">
+        <v>220306020</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K110" s="8">
+        <v>1</v>
+      </c>
+      <c r="L110" s="8">
+        <v>0</v>
+      </c>
+      <c r="M110" s="8">
+        <v>12</v>
+      </c>
+      <c r="N110" s="8">
+        <v>0</v>
+      </c>
+      <c r="O110" s="8">
+        <v>9.3330000000000002</v>
+      </c>
+      <c r="P110" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>0</v>
+      </c>
+      <c r="R110" s="8">
+        <v>9.3330000000000002</v>
+      </c>
+      <c r="S110" s="8">
+        <v>0</v>
+      </c>
+      <c r="T110" s="8">
+        <v>0</v>
+      </c>
+      <c r="U110" s="8">
+        <v>0</v>
+      </c>
+      <c r="V110" s="8">
+        <v>2</v>
+      </c>
+      <c r="W110" s="8">
+        <v>0</v>
+      </c>
+      <c r="X110" s="8">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Y110" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC110" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="7">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B111" s="7">
+        <v>13120</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" s="7">
+        <v>13</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I111" s="1">
+        <v>220306020</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K111" s="8">
+        <v>1</v>
+      </c>
+      <c r="L111" s="8">
+        <v>0</v>
+      </c>
+      <c r="M111" s="8">
+        <v>0</v>
+      </c>
+      <c r="N111" s="8">
+        <v>0</v>
+      </c>
+      <c r="O111" s="8">
+        <v>0</v>
+      </c>
+      <c r="P111" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>0</v>
+      </c>
+      <c r="R111" s="8">
+        <v>0</v>
+      </c>
+      <c r="S111" s="8">
+        <v>0</v>
+      </c>
+      <c r="T111" s="8">
+        <v>0</v>
+      </c>
+      <c r="U111" s="8">
+        <v>0</v>
+      </c>
+      <c r="V111" s="8">
+        <v>8</v>
+      </c>
+      <c r="W111" s="8">
+        <v>0</v>
+      </c>
+      <c r="X111" s="8">
+        <v>1.333</v>
+      </c>
+      <c r="Y111" s="8">
+        <v>6</v>
+      </c>
+      <c r="Z111" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="8">
+        <v>1.167</v>
+      </c>
+      <c r="AB111" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC111" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="7">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B112" s="7">
+        <v>10101</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" s="7">
+        <v>10</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" s="6">
+        <v>220306020</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K112" s="8">
+        <v>1</v>
+      </c>
+      <c r="L112" s="8">
+        <v>0</v>
+      </c>
+      <c r="M112" s="8">
+        <v>0</v>
+      </c>
+      <c r="N112" s="8">
+        <v>0</v>
+      </c>
+      <c r="O112" s="8">
+        <v>0</v>
+      </c>
+      <c r="P112" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="8">
+        <v>0</v>
+      </c>
+      <c r="R112" s="8">
+        <v>0</v>
+      </c>
+      <c r="S112" s="8">
+        <v>0</v>
+      </c>
+      <c r="T112" s="8">
+        <v>0</v>
+      </c>
+      <c r="U112" s="8">
+        <v>0</v>
+      </c>
+      <c r="V112" s="8">
+        <v>1</v>
+      </c>
+      <c r="W112" s="8">
+        <v>0</v>
+      </c>
+      <c r="X112" s="8">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Y112" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B113" s="7">
+        <v>5801</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="7">
+        <v>5</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I113" s="2">
+        <v>220306020</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113" s="8">
+        <v>1</v>
+      </c>
+      <c r="L113" s="8">
+        <v>0</v>
+      </c>
+      <c r="M113" s="8">
+        <v>11</v>
+      </c>
+      <c r="N113" s="8">
+        <v>0</v>
+      </c>
+      <c r="O113" s="8">
+        <v>6.8330000000000002</v>
+      </c>
+      <c r="P113" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q113" s="8">
+        <v>0</v>
+      </c>
+      <c r="R113" s="8">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="S113" s="8">
+        <v>2</v>
+      </c>
+      <c r="T113" s="8">
+        <v>0</v>
+      </c>
+      <c r="U113" s="8">
+        <v>1.167</v>
+      </c>
+      <c r="V113" s="8">
+        <v>3</v>
+      </c>
+      <c r="W113" s="8">
+        <v>0</v>
+      </c>
+      <c r="X113" s="8">
+        <v>1.333</v>
+      </c>
+      <c r="Y113" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z113" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB113" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC113" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B114" s="7">
+        <v>5109</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" s="7">
+        <v>5</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" s="1">
+        <v>220306020</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K114" s="8">
+        <v>1</v>
+      </c>
+      <c r="L114" s="8">
+        <v>0</v>
+      </c>
+      <c r="M114" s="8">
+        <v>0</v>
+      </c>
+      <c r="N114" s="8">
+        <v>0</v>
+      </c>
+      <c r="O114" s="8">
+        <v>0</v>
+      </c>
+      <c r="P114" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="8">
+        <v>0</v>
+      </c>
+      <c r="R114" s="8">
+        <v>0</v>
+      </c>
+      <c r="S114" s="8">
+        <v>0</v>
+      </c>
+      <c r="T114" s="8">
+        <v>0</v>
+      </c>
+      <c r="U114" s="8">
+        <v>0</v>
+      </c>
+      <c r="V114" s="8">
+        <v>3</v>
+      </c>
+      <c r="W114" s="8">
+        <v>0</v>
+      </c>
+      <c r="X114" s="8">
+        <v>1.083</v>
+      </c>
+      <c r="Y114" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z114" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="8">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB114" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC114" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B115" s="7">
+        <v>13101</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" s="7">
+        <v>13</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" s="6">
+        <v>220306020</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K115" s="7">
+        <v>1</v>
+      </c>
+      <c r="L115" s="7">
+        <v>0</v>
+      </c>
+      <c r="M115" s="7">
+        <v>3</v>
+      </c>
+      <c r="N115" s="7">
+        <v>0</v>
+      </c>
+      <c r="O115" s="7">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="P115" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q115" s="7">
+        <v>0</v>
+      </c>
+      <c r="R115" s="7">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="S115" s="7">
+        <v>0</v>
+      </c>
+      <c r="T115" s="7">
+        <v>0</v>
+      </c>
+      <c r="U115" s="7">
+        <v>0</v>
+      </c>
+      <c r="V115" s="7">
+        <v>2</v>
+      </c>
+      <c r="W115" s="7">
+        <v>0</v>
+      </c>
+      <c r="X115" s="7">
+        <v>1.167</v>
+      </c>
+      <c r="Y115" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z115" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB115" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC115" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="7">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
